--- a/workflow-rest/src/test/resources/css/customer-self-service.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\September-release\microservices-lowcode-testautomation\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA89A117-3211-4AC1-A131-5E4D5DF8CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0384B-A254-4477-9804-E97F5D0DA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Self Service-Accept" sheetId="2" r:id="rId1"/>
     <sheet name="Customer Self-Service-Reject" sheetId="1" r:id="rId2"/>
-    <sheet name="Examples" sheetId="3" r:id="rId3"/>
-    <sheet name="Graphql-Example" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -269,92 +267,7 @@
     <t>success=c~LEN("[firstname]")=3</t>
   </si>
   <si>
-    <t>http://microservices.virtualandemo.com:8090/customers</t>
-  </si>
-  <si>
-    <t>customers.find { it.firstname \\=\\= 'Ado' }.postalCode=6500;customers.find { it.customerId \\=\\= 'bunlo9vk5f' }.firstname=Ado;customers.find { it.customerId \\=\\= 'f2m0v9b73c' }.email=blangman14@example.com;</t>
-  </si>
-  <si>
-    <t>Read Customer infos - Exact-Order-Match</t>
-  </si>
-  <si>
-    <t>ReadCustomers-EOM</t>
-  </si>
-  <si>
-    <t>jsonpath=customers;match=exact-order-match
-customerId,firstname,lastname,postalCode,streetAddress
-bunlo9vk5f,Ado,Kinnett,6500,2 Autumn Leaf Lane</t>
-  </si>
-  <si>
-    <t>https://live.virtualandemo.com/api/persons/bgates</t>
-  </si>
-  <si>
-    <t>ReadCustomers-Simple</t>
-  </si>
-  <si>
-    <t>dateOfBirth,firstName,lastName,lastTimeOnline,spokenLanguages/additionalProp1:additionalProp2:additionalProp3,username
-1955-10-28,Bill,Gates,2020-08-30T20:28:36.267Z,Tamil:English:Spanish,bgates</t>
-  </si>
-  <si>
-    <t>match=exact-order-match
-dateOfBirth,lastName,firstName,lastTimeOnline,spokenLanguages/additionalProp1:additionalProp3:additionalProp2
-1955-10-28,Gates,Bill,2020-08-30T20:28:36.267Z,Tamil:Spanish:English</t>
-  </si>
-  <si>
-    <t>match=exact-match
-dateOfBirth,firstName,lastName,lastTimeOnline,spokenLanguages/additionalProp1:additionalProp3:additionalProp2,username
-1955-10-28,Bill,Gates,2020-08-30T20:28:36.267Z,Tamil:Spanish:English,bgates</t>
-  </si>
-  <si>
-    <t>ReadCustomers</t>
-  </si>
-  <si>
-    <t>Read Customer infos - Example-case1</t>
-  </si>
-  <si>
-    <t>Read Customer infos - Example-case2</t>
-  </si>
-  <si>
-    <t>Read Customer infos - Example-case3</t>
-  </si>
-  <si>
-    <t>{
-  "birthday" : "1918-10-24",
-  "postalCode" : "60563"
-}</t>
-  </si>
-  <si>
-    <t>https://live.virtualandemo.com/api/riskfactor/compute</t>
-  </si>
-  <si>
-    <t>RiskFactor-DirtectResponse</t>
-  </si>
-  <si>
-    <t>riskFactor=.</t>
-  </si>
-  <si>
-    <t>ResponseContent</t>
-  </si>
-  <si>
-    <t>success=c~[riskFactor]=65</t>
-  </si>
-  <si>
     <t>Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @examples</t>
-  </si>
-  <si>
-    <t>@examples</t>
-  </si>
-  <si>
-    <t>ReadCustomers-FindLast</t>
-  </si>
-  <si>
-    <t>Read Customer infos - Find last element</t>
-  </si>
-  <si>
-    <t>id=customers[-1].customerId</t>
   </si>
   <si>
     <t>expiryDate=SUBSTITUTE(TEXT(NOW()+365, "yyyy-mm-dd HH:mm:ss"), " ", "T");startDate=TEXT(TODAY(),"yyyy-mm-dd")</t>
@@ -380,96 +293,6 @@
     <t>http://localhost/auth</t>
   </si>
   <si>
-    <t>http://localhost:8080/apis/graphql</t>
-  </si>
-  <si>
-    <t>Create-User-using-Graphql</t>
-  </si>
-  <si>
-    <t>graphql</t>
-  </si>
-  <si>
-    <t>Create user with Graphql</t>
-  </si>
-  <si>
-    <t>data.createAuthor.name=[name]</t>
-  </si>
-  <si>
-    <t>id=data.createAuthor.id</t>
-  </si>
-  <si>
-    <t>Create-AnotherUser-using-Graphql</t>
-  </si>
-  <si>
-    <t>Create another user with Graphql</t>
-  </si>
-  <si>
-    <t>IncludesByPath</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>{
-    "data": {
-        "createAuthor": {
-            "id": "1",
-            "[name]": "bezkoder"
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>data.createAuthor/name
-[name]</t>
-  </si>
-  <si>
-    <t>name=suki;age=13;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @graphql</t>
-  </si>
-  <si>
-    <t>Read user - using graphql</t>
-  </si>
-  <si>
-    <t>{"query":"query findAllAuthors {\n findAllAuthors {\n id\n name\n age\n }\n}","variables":{}}</t>
-  </si>
-  <si>
-    <t>Read-Graphql-user</t>
-  </si>
-  <si>
-    <t>id2=data.createAuthor.id</t>
-  </si>
-  <si>
-    <t>data.createAuthor/name
-[name2]</t>
-  </si>
-  <si>
-    <t>data.createAuthor.name=[name2]</t>
-  </si>
-  <si>
-    <t>jsonpath=data.findAllAuthors
-id,name,age
-[id],[name], i~13
-[id2],[name2], i~8</t>
-  </si>
-  <si>
-    <t>{"query":"mutation {\n createAuthor(\n name: \"[name]\",\n age: [age]) {\n id name\n }\n}","variables":{
-"name": "",
-"age": 0
-}}</t>
-  </si>
-  <si>
-    <t>name2=sri;age2=8;</t>
-  </si>
-  <si>
-    <t>{"query":"mutation {\n createAuthor(\n name: \"[name2]\",\n age: [age2]) {\n id name\n }\n}","variables":{
-"name": "",
-"age": 0
-}}</t>
-  </si>
-  <si>
     <t>insurancePremiumAmount=500</t>
   </si>
   <si>
@@ -486,15 +309,12 @@
     }
 }</t>
   </si>
-  <si>
-    <t>GRAPHQL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,12 +344,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -545,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -647,21 +461,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -683,24 +488,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1738,7 +1526,7 @@
         <v>53</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1755,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -1780,7 +1568,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1820,10 +1608,10 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="P3" s="9"/>
     </row>
@@ -1862,7 +1650,7 @@
       <c r="L4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="6" t="s">
         <v>56</v>
       </c>
@@ -1940,7 +1728,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>34</v>
@@ -2028,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2168,7 +1956,7 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -2276,7 +2064,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>45</v>
@@ -2342,520 +2130,4 @@
     <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E57E3D-0C14-46A6-9520-2A3B86BE3763}">
-  <dimension ref="A1:O7"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="34.42578125" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
-        <v>200</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
-        <v>200</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6">
-        <v>200</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6">
-        <v>200</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
-        <v>200</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="11"/>
-      <c r="M6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
-        <v>200</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="18">
-        <v>65</v>
-      </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{63206C17-F1C8-48C0-95B7-F0A0AD92D0FC}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{222B9008-B6F1-43AD-AB02-552007F39E4F}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{4201C29B-B67D-48C2-92AE-011AA2CEB9F2}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{3EC53EBE-1EE4-4EE8-9A11-2B6EBDD2FC2A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB4DF19-83A5-4FEA-9E34-BA6EFC9624BD}">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{180ACA25-F756-4186-AC24-3FC418FE698B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{23BC7330-EC62-4BD5-9C0B-B916C1920717}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{64BB8EA6-8648-4E15-8252-996EBFC66AED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
-</worksheet>
 </file>
--- a/workflow-rest/src/test/resources/css/customer-self-service.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\december-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D0384B-A254-4477-9804-E97F5D0DA5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52279D95-B6CB-47DB-904F-821D74C45D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Self Service-Accept" sheetId="2" r:id="rId1"/>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1834,7 @@
     <col min="10" max="10" width="54.5703125" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>

--- a/workflow-rest/src/test/resources/css/customer-self-service.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52279D95-B6CB-47DB-904F-821D74C45D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14D9AC3-2922-434D-9095-C0B496C218F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Self Service-Accept" sheetId="2" r:id="rId1"/>
@@ -122,34 +122,6 @@
   </si>
   <si>
     <t>CustomerSelfServiceAuth</t>
-  </si>
-  <si>
-    <t>{
-    "statusHistory": [],
-    "customerInfo": {
-        "customerId": "[customerId]",
-        "firstname": "[firstname]",
-        "lastname": "[lastname]",
-        "contactAddress": {
-            "streetAddress": "[streetAddress]",
-            "postalCode": "[postalCode]",
-            "city": "[city]"
-        },
-        "billingAddress": {
-            "streetAddress": "[streetAddress]",
-            "postalCode": "[postalCode]",
-            "city": "[city]"
-        }
-    },
-    "insuranceOptions": {
-        "startDate": "2021-06-20",
-        "insuranceType": "Life Insurance",
-        "deductible": {
-            "amount": 500,
-            "currency": "CHF"
-        }
-    }
-}</t>
   </si>
   <si>
     <t>customerId=customerId;firstname=firstname;lastname=lastname;streetAddress=streetAddress;postalCode=postalCode;city=city</t>
@@ -306,6 +278,34 @@
     "policyLimit": {
         "amount": 50000,
         "currency": "CHF"
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "statusHistory": [],
+    "customerInfo": {
+        "customerId": "[customerId]",
+        "firstname": "[firstname]",
+        "lastname": "[lastname]",
+        "contactAddress": {
+            "streetAddress": "[streetAddress]",
+            "postalCode": "[postalCode]",
+            "city": "[city]"
+        },
+        "billingAddress": {
+            "streetAddress": "[streetAddress]",
+            "postalCode": "[postalCode]",
+            "city": "[city]"
+        }
+    },
+    "insuranceOptions": {
+        "startDate": "[startDate]",
+        "insuranceType": "Life Insurance",
+        "deductible": {
+            "amount": 500,
+            "currency": "CHF"
+        }
     }
 }</t>
   </si>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="K6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,16 +1517,16 @@
         <v>16</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="P1" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>24</v>
@@ -1568,7 +1568,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" s="9"/>
     </row>
@@ -1648,18 +1648,18 @@
         <v>25</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="15"/>
       <c r="N4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1668,10 +1668,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -1686,37 +1686,37 @@
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>12</v>
@@ -1728,10 +1728,10 @@
         <v>27</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="9"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1750,13 +1750,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
@@ -1768,14 +1768,14 @@
         <v>27</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1816,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B51E2-E984-41DF-9C0A-F557E24A35FA}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,6 +1834,7 @@
     <col min="10" max="10" width="54.5703125" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71.7109375" customWidth="1"/>
     <col min="14" max="14" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1875,10 +1876,10 @@
         <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1908,7 +1909,7 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>24</v>
@@ -1919,7 +1920,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
@@ -1992,14 +1993,14 @@
         <v>25</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -2008,10 +2009,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -2026,33 +2027,33 @@
         <v>27</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>12</v>
@@ -2064,18 +2065,18 @@
         <v>27</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -2084,13 +2085,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
@@ -2102,14 +2103,14 @@
         <v>27</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="9"/>
     </row>

--- a/workflow-rest/src/test/resources/css/customer-self-service.xlsx
+++ b/workflow-rest/src/test/resources/css/customer-self-service.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\virtualan-software-delivery\2022\feb-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elan\virtualan-software-ws\2022\feb-release\microservices-lowcode-testautomation\workflow-rest\src\test\resources\css\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6976B66B-0ABF-4B81-9703-B5FA5C44D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45770B-CE21-4BAD-8D9C-43FA679228EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7CA6F974-39B2-4E5F-BC2D-5AC16F3752B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer-self-service-Accept" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="65">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>as a insurance user;login;content type;login information;logging in using;user email information;</t>
-  </si>
-  <si>
-    <t>verify record</t>
   </si>
 </sst>
 </file>
@@ -550,20 +547,6 @@
   <dxfs count="35">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1051,6 +1034,20 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1209,38 +1206,38 @@
     <tableColumn id="2" xr3:uid="{38B39313-4971-4AB8-90FF-17FEEBD272E2}" name="Type" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{6C299A48-4F91-4ADF-9FA5-2A61A0CB5BD4}" name="Resource" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{45BB3847-D624-4423-871B-B3B36D7775E0}" name="TestCaseNameDesc" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{81A6868C-FA66-4403-BDB9-3B37B82CFD8B}" name="StepInfo" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{86E03ED2-22E0-4F18-BA1B-F3DFADBDAC3D}" name="URL" dataDxfId="26" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C173B7A0-5E7D-4643-A6DA-076F9490CB68}" name="Action" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{BB259141-ABF2-42DC-85C2-E5CACF2AC48B}" name="ContentType" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{0418BA09-F5F1-4A7C-A239-86F5ECC68B43}" name="StatusCode" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{1FB97D06-8CD1-4487-8202-DCACC7F29382}" name="RequestHeaders" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{83D78877-EB11-4987-BC47-353E42434923}" name="RequestContent" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{6F094F56-A9C6-46ED-9973-53022E81C107}" name="ResponseByFields" dataDxfId="20" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{20217874-188E-4455-8267-C7FF88CCF0D3}" name="StoreResponseVariables" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{F821C116-85DC-417F-A9F1-CE1E2EC0CF08}" name="Csvson" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{81A6868C-FA66-4403-BDB9-3B37B82CFD8B}" name="StepInfo" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{86E03ED2-22E0-4F18-BA1B-F3DFADBDAC3D}" name="URL" dataDxfId="25" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C173B7A0-5E7D-4643-A6DA-076F9490CB68}" name="Action" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{BB259141-ABF2-42DC-85C2-E5CACF2AC48B}" name="ContentType" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{0418BA09-F5F1-4A7C-A239-86F5ECC68B43}" name="StatusCode" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{1FB97D06-8CD1-4487-8202-DCACC7F29382}" name="RequestHeaders" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{83D78877-EB11-4987-BC47-353E42434923}" name="RequestContent" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{6F094F56-A9C6-46ED-9973-53022E81C107}" name="ResponseByFields" dataDxfId="19" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{20217874-188E-4455-8267-C7FF88CCF0D3}" name="StoreResponseVariables" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{F821C116-85DC-417F-A9F1-CE1E2EC0CF08}" name="Csvson" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}" name="Table1" displayName="Table1" ref="A1:M7" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}" name="Table1" displayName="Table1" ref="A1:M7" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:M7" xr:uid="{9ED465CD-F594-48A9-8196-5FC7750F944C}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{44E9C209-0829-4608-A562-A853364EDCA9}" name="TestCaseName" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{464049FF-A241-416D-81E2-D042C77E613D}" name="Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{41CFEFB5-53E0-4032-A5D9-1D5CD83C9088}" name="Resource" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{68FA4253-D22C-4F9E-9642-1CE7DA46F6CD}" name="TestCaseNameDesc" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{44E9C209-0829-4608-A562-A853364EDCA9}" name="TestCaseName" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{464049FF-A241-416D-81E2-D042C77E613D}" name="Type" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{41CFEFB5-53E0-4032-A5D9-1D5CD83C9088}" name="Resource" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{68FA4253-D22C-4F9E-9642-1CE7DA46F6CD}" name="TestCaseNameDesc" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{38DFC232-AD32-4518-BBE9-0E81FA65D158}" name="URL" dataDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{5E0D29DA-C437-477D-80B1-084D6FFDA7D0}" name="Action" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D521624D-A30C-4903-8753-308DB96CC468}" name="ContentType" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{7ABEA6AA-5DB7-4844-8FE7-5BAA2D97A021}" name="StatusCode" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{CEDD7D6B-A15B-4573-AE56-06BD0C005478}" name="RequestHeaders" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{A354B51F-EA84-4362-AAF3-573124DE42F7}" name="RequestContent" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{231F76A7-ADF1-4065-9B23-160CE53A174D}" name="ResponseByFields" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{815D92F3-6CC4-4225-9A76-C629D21D7EAB}" name="StoreResponseVariables" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{04967956-35B1-4A68-866E-3ACD6FB9209E}" name="Csvson" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1545,31 +1542,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87A57E5-F5BD-4861-8936-9E28488C0E70}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="70.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="7.41796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.41796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.83984375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.26171875" customWidth="1"/>
+    <col min="6" max="6" width="70.41796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.15625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14.83984375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="21.15625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.578125" style="7" customWidth="1"/>
     <col min="12" max="12" width="27" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="88.85546875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="88.83984375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="24.578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.41796875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1872,14 +1869,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1916,26 +1911,26 @@
       <selection activeCell="F8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.41796875" customWidth="1"/>
+    <col min="3" max="3" width="12.41796875" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="70.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83984375" customWidth="1"/>
+    <col min="7" max="7" width="16.15625" customWidth="1"/>
+    <col min="8" max="8" width="14.83984375" customWidth="1"/>
+    <col min="9" max="9" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.578125" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.26171875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.41796875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
@@ -2023,7 +2018,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -2107,7 +2102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="390" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="374.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
@@ -2148,7 +2143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
@@ -2189,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
